--- a/uploads/徐钢.xlsx
+++ b/uploads/徐钢.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>西安牙科医院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -408,171 +408,6 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/uploads/徐钢.xlsx
+++ b/uploads/徐钢.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="4">
   <si>
     <t>西安牙科医院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -408,6 +408,171 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
     </row>

--- a/uploads/徐钢.xlsx
+++ b/uploads/徐钢.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="4">
   <si>
     <t>西安牙科医院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,204 +375,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="E1" sqref="E1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
         <v>3</v>
       </c>
     </row>
